--- a/Docs/02_基本設計/ユースケース一覧.xlsx
+++ b/Docs/02_基本設計/ユースケース一覧.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ユースケース一覧</t>
     <rPh sb="6" eb="8">
@@ -105,6 +105,27 @@
     <t>口座を更新する</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローンを削除する</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座を削除する</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物の記録を削除する</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,88 +150,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -368,44 +321,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,26 +369,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="強調線吹き出し 1 1"/>
+        <xdr:cNvPr id="5" name="強調線吹き出し 1 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="1295400"/>
-          <a:ext cx="1790700" cy="381000"/>
+          <a:off x="3771900" y="1419225"/>
+          <a:ext cx="2019300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="accentCallout1">
           <a:avLst/>
@@ -473,7 +417,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユースケース記述が未</a:t>
+            <a:t>ユースケース記述未作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -482,26 +426,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="強調線吹き出し 1 2"/>
+        <xdr:cNvPr id="6" name="強調線吹き出し 1 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="2266950"/>
-          <a:ext cx="1790700" cy="381000"/>
+          <a:off x="3771900" y="2324100"/>
+          <a:ext cx="2019300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="accentCallout1">
           <a:avLst/>
@@ -530,7 +474,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユースケース記述が未</a:t>
+            <a:t>ユースケース記述未作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -539,26 +483,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="強調線吹き出し 1 3"/>
+        <xdr:cNvPr id="7" name="強調線吹き出し 1 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="2838450"/>
-          <a:ext cx="1790700" cy="381000"/>
+          <a:off x="3771900" y="3133725"/>
+          <a:ext cx="2019300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="accentCallout1">
           <a:avLst/>
@@ -587,7 +531,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユースケース記述が未</a:t>
+            <a:t>ユースケース記述未作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -595,6 +539,17 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ユースケース一覧" displayName="ユースケース一覧" ref="B5:C27" totalsRowShown="0">
+  <autoFilter ref="B5:C27"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="ユースケース名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,693 +842,705 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="20" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1">
+      <c r="A7" s="5"/>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1">
+      <c r="A8" s="5"/>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1">
+      <c r="A9" s="5"/>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1">
+      <c r="A10" s="5"/>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1">
+      <c r="A11" s="5"/>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1">
+      <c r="A12" s="5"/>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C40" s="5"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="9"/>
+      <c r="C43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1583,5 +1550,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>